--- a/Mass.xlsx
+++ b/Mass.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wraith\Desktop\GA3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/32d58b98aafa3dea/Documents/GitHub/GA3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55923403-B7A2-4C6C-ACC4-2321653068E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="32" documentId="13_ncr:1_{55923403-B7A2-4C6C-ACC4-2321653068E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CC150BC9-6FEF-4FDD-B03C-71B9EBB644B5}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,23 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="27">
   <si>
     <t>per unit mass</t>
   </si>
@@ -90,7 +101,22 @@
     <t>mass(kg)</t>
   </si>
   <si>
-    <t>tota;</t>
+    <t>A</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
   </si>
 </sst>
 </file>
@@ -126,12 +152,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -412,283 +439,357 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.84375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.84375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N1" s="2"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" t="s">
+      <c r="C2" s="2"/>
+      <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E2" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" t="s">
+        <v>7</v>
+      </c>
+      <c r="N2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B3" s="1">
         <v>0.2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="2">
-        <v>3.5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2">
-        <f>B2*D2</f>
-        <v>0.70000000000000007</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="2">
-        <v>0.65</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="2">
-        <v>0.23599999999999999</v>
+      <c r="D3" s="1">
+        <v>3.5</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F14" si="0">B3*D3</f>
+        <f>B3*D3</f>
+        <v>0.70000000000000007</v>
+      </c>
+      <c r="G3">
+        <v>3.12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.23599999999999999</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4">
+        <f t="shared" ref="F4:F13" si="0">B4*D4</f>
         <v>0.15340000000000001</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
+      <c r="G4">
+        <v>0.246</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B5" s="1">
         <f>0.8*10^-3</f>
         <v>8.0000000000000004E-4</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C5" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D5" s="1">
         <v>28</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E5" t="s">
         <v>11</v>
       </c>
-      <c r="F4">
+      <c r="F5">
         <f t="shared" si="0"/>
         <v>2.24E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
+      <c r="G5">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B6" s="1">
         <f>5.3*10^-3</f>
         <v>5.3E-3</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C6" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="2">
-        <v>3</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="D6" s="1">
+        <v>6</v>
+      </c>
+      <c r="E6" t="s">
         <v>11</v>
       </c>
-      <c r="F5">
-        <f t="shared" si="0"/>
-        <v>1.5900000000000001E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>3.1800000000000002E-2</v>
+      </c>
+      <c r="G6">
         <v>6</v>
       </c>
-      <c r="B6" s="2">
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
         <v>2.39</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C7" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D7" s="1">
         <f>0.002115*5</f>
         <v>1.0575000000000001E-2</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E7" t="s">
         <v>13</v>
       </c>
-      <c r="F6">
+      <c r="F7">
         <f t="shared" si="0"/>
         <v>2.5274250000000005E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B8" s="1">
         <v>2.39</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C8" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D8" s="1">
         <f>0.01427</f>
         <v>1.427E-2</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E8" t="s">
         <v>13</v>
       </c>
-      <c r="F7">
+      <c r="F8">
         <f t="shared" si="0"/>
         <v>3.4105299999999998E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B9" s="1">
         <v>2.39</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C9" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D9" s="1">
         <f>0.003859</f>
         <v>3.859E-3</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E9" t="s">
         <v>13</v>
       </c>
-      <c r="F8">
+      <c r="F9">
         <f t="shared" si="0"/>
         <v>9.2230100000000002E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B10" s="1">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C10" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D10" s="1">
         <v>4</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E10" t="s">
         <v>11</v>
       </c>
-      <c r="F9">
+      <c r="F10">
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="2">
-        <v>0.65</v>
-      </c>
-      <c r="C10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="2">
-        <v>0.06</v>
-      </c>
-      <c r="E10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10">
-        <f t="shared" si="0"/>
-        <v>3.9E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="2">
+      <c r="B11" s="1">
         <v>0.65</v>
       </c>
       <c r="C11" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="2">
-        <v>1.4999999999999999E-2</v>
+      <c r="D11" s="1">
+        <v>0.06</v>
       </c>
       <c r="E11" t="s">
         <v>10</v>
       </c>
       <c r="F11">
         <f t="shared" si="0"/>
+        <v>3.9E-2</v>
+      </c>
+      <c r="G11">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
         <v>9.75E-3</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A12" t="s">
+      <c r="G12">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B13" s="1">
         <v>1150</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C13" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D13" s="1">
         <f>(20538+20358+24265+24130)*10^-9</f>
         <v>8.929100000000001E-5</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E13" t="s">
         <v>11</v>
       </c>
-      <c r="F12">
+      <c r="F13">
         <f t="shared" si="0"/>
         <v>0.10268465000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="E13" t="s">
-        <v>21</v>
-      </c>
-      <c r="F13">
-        <f>SUM(F2:F12)</f>
-        <v>1.2117372100000001</v>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="E14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14">
+        <f>SUM(F3:F13)</f>
+        <v>1.2276372100000001</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B1:C1"/>
+  <mergeCells count="6">
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Mass.xlsx
+++ b/Mass.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/32d58b98aafa3dea/Documents/GitHub/GA3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="32" documentId="13_ncr:1_{55923403-B7A2-4C6C-ACC4-2321653068E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CC150BC9-6FEF-4FDD-B03C-71B9EBB644B5}"/>
+  <xr:revisionPtr revIDLastSave="97" documentId="13_ncr:1_{55923403-B7A2-4C6C-ACC4-2321653068E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2BA05915-D13A-487B-A1BE-F96E1DD31149}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -152,13 +152,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -439,10 +438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P14"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -450,9 +449,10 @@
     <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
         <v>21</v>
       </c>
@@ -476,10 +476,8 @@
         <v>26</v>
       </c>
       <c r="N1" s="2"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -518,7 +516,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -541,8 +539,33 @@
       <c r="G3">
         <v>3.12</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="H3">
+        <f>G3*B3</f>
+        <v>0.62400000000000011</v>
+      </c>
+      <c r="I3">
+        <v>3.12</v>
+      </c>
+      <c r="J3">
+        <f>I3*B3</f>
+        <v>0.62400000000000011</v>
+      </c>
+      <c r="K3">
+        <v>3.1920000000000002</v>
+      </c>
+      <c r="L3">
+        <f>K3*B3</f>
+        <v>0.63840000000000008</v>
+      </c>
+      <c r="M3">
+        <v>3.1440000000000001</v>
+      </c>
+      <c r="N3">
+        <f>M3*B3</f>
+        <v>0.62880000000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -565,8 +588,33 @@
       <c r="G4">
         <v>0.246</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="H4">
+        <f t="shared" ref="H4:H13" si="1">G4*B4</f>
+        <v>0.15990000000000001</v>
+      </c>
+      <c r="I4">
+        <v>0.183</v>
+      </c>
+      <c r="J4">
+        <f t="shared" ref="J4:J13" si="2">I4*B4</f>
+        <v>0.11895</v>
+      </c>
+      <c r="K4">
+        <v>0.255</v>
+      </c>
+      <c r="L4">
+        <f t="shared" ref="L4:L14" si="3">K4*B4</f>
+        <v>0.16575000000000001</v>
+      </c>
+      <c r="M4">
+        <v>0.25</v>
+      </c>
+      <c r="N4">
+        <f t="shared" ref="N4:N14" si="4">M4*B4</f>
+        <v>0.16250000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -590,8 +638,33 @@
       <c r="G5">
         <v>24</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="H5">
+        <f t="shared" si="1"/>
+        <v>1.9200000000000002E-2</v>
+      </c>
+      <c r="I5">
+        <v>32</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="2"/>
+        <v>2.5600000000000001E-2</v>
+      </c>
+      <c r="K5">
+        <v>24</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="3"/>
+        <v>1.9200000000000002E-2</v>
+      </c>
+      <c r="M5">
+        <v>24</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="4"/>
+        <v>1.9200000000000002E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -615,8 +688,33 @@
       <c r="G6">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>3.1800000000000002E-2</v>
+      </c>
+      <c r="I6">
+        <v>6</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="2"/>
+        <v>3.1800000000000002E-2</v>
+      </c>
+      <c r="K6">
+        <v>6</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="3"/>
+        <v>3.1800000000000002E-2</v>
+      </c>
+      <c r="M6">
+        <v>6</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="4"/>
+        <v>3.1800000000000002E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -637,8 +735,37 @@
         <f t="shared" si="0"/>
         <v>2.5274250000000005E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="G7">
+        <f>0.0017729*6</f>
+        <v>1.06374E-2</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>2.5423386000000003E-2</v>
+      </c>
+      <c r="I7">
+        <v>1.2957E-2</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="2"/>
+        <v>3.0967230000000002E-2</v>
+      </c>
+      <c r="K7">
+        <v>1.5258000000000001E-2</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="3"/>
+        <v>3.6466620000000005E-2</v>
+      </c>
+      <c r="M7">
+        <v>1.2215999999999999E-2</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="4"/>
+        <v>2.9196240000000002E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -659,8 +786,36 @@
         <f t="shared" si="0"/>
         <v>3.4105299999999998E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="G8">
+        <v>1.434E-2</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="1"/>
+        <v>3.42726E-2</v>
+      </c>
+      <c r="I8">
+        <v>1.0954999999999999E-2</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="2"/>
+        <v>2.6182449999999999E-2</v>
+      </c>
+      <c r="K8">
+        <v>1.4988700000000001E-2</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="3"/>
+        <v>3.5822993000000004E-2</v>
+      </c>
+      <c r="M8">
+        <v>1.4872E-2</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="4"/>
+        <v>3.5544079999999999E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -681,8 +836,36 @@
         <f t="shared" si="0"/>
         <v>9.2230100000000002E-3</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="G9">
+        <v>6.1990999999999999E-3</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="1"/>
+        <v>1.4815849000000001E-2</v>
+      </c>
+      <c r="I9">
+        <v>3.215E-3</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="2"/>
+        <v>7.6838500000000007E-3</v>
+      </c>
+      <c r="K9">
+        <v>3.1800000000000001E-3</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="3"/>
+        <v>7.6002000000000005E-3</v>
+      </c>
+      <c r="M9">
+        <v>3.1871999999999998E-3</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="4"/>
+        <v>7.617408E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -702,8 +885,36 @@
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="G10">
+        <v>4</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="I10">
+        <v>4</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="2"/>
+        <v>0.1</v>
+      </c>
+      <c r="K10">
+        <v>4</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="3"/>
+        <v>0.1</v>
+      </c>
+      <c r="M10">
+        <v>4</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="4"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -726,8 +937,33 @@
       <c r="G11">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="H11">
+        <f t="shared" si="1"/>
+        <v>3.2500000000000001E-2</v>
+      </c>
+      <c r="I11">
+        <v>0.05</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="2"/>
+        <v>3.2500000000000001E-2</v>
+      </c>
+      <c r="K11">
+        <v>0.05</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="3"/>
+        <v>3.2500000000000001E-2</v>
+      </c>
+      <c r="M11">
+        <v>0.05</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="4"/>
+        <v>3.2500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -750,8 +986,33 @@
       <c r="G12">
         <v>2.5000000000000001E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="H12">
+        <f t="shared" si="1"/>
+        <v>1.6250000000000001E-2</v>
+      </c>
+      <c r="I12">
+        <v>0.02</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="2"/>
+        <v>1.3000000000000001E-2</v>
+      </c>
+      <c r="K12">
+        <v>0.02</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="3"/>
+        <v>1.3000000000000001E-2</v>
+      </c>
+      <c r="M12">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="4"/>
+        <v>1.6250000000000001E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -772,14 +1033,62 @@
         <f t="shared" si="0"/>
         <v>0.10268465000000002</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="G13" s="1">
+        <f>(20538+20358+24265+24130+1600)*10^-9</f>
+        <v>9.0891000000000008E-5</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="1"/>
+        <v>0.10452465000000001</v>
+      </c>
+      <c r="I13" s="1">
+        <f>(20538+20358+24265+24130-1600)*10^-9</f>
+        <v>8.7691000000000011E-5</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="2"/>
+        <v>0.10084465000000001</v>
+      </c>
+      <c r="K13" s="1">
+        <f>(20538+20358+24265+24130+1600)*10^-9</f>
+        <v>9.0891000000000008E-5</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="3"/>
+        <v>0.10452465000000001</v>
+      </c>
+      <c r="M13" s="1">
+        <f>(20538+20358+24265+24130+1600)*10^-9</f>
+        <v>9.0891000000000008E-5</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="4"/>
+        <v>0.10452465000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="E14" t="s">
         <v>22</v>
       </c>
       <c r="F14">
         <f>SUM(F3:F13)</f>
         <v>1.2276372100000001</v>
+      </c>
+      <c r="H14">
+        <f>SUM(H3:H13)</f>
+        <v>1.1626864850000005</v>
+      </c>
+      <c r="J14">
+        <f>SUM(J3:J13)</f>
+        <v>1.1115281800000001</v>
+      </c>
+      <c r="L14">
+        <f>SUM(L3:L13)</f>
+        <v>1.1850644630000002</v>
+      </c>
+      <c r="N14">
+        <f>SUM(N3:N13)</f>
+        <v>1.1679323780000002</v>
       </c>
     </row>
   </sheetData>

--- a/Mass.xlsx
+++ b/Mass.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/32d58b98aafa3dea/Documents/GitHub/GA3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="97" documentId="13_ncr:1_{55923403-B7A2-4C6C-ACC4-2321653068E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2BA05915-D13A-487B-A1BE-F96E1DD31149}"/>
+  <xr:revisionPtr revIDLastSave="118" documentId="13_ncr:1_{55923403-B7A2-4C6C-ACC4-2321653068E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FC5E8727-AC9E-4D09-802E-CED3814D6787}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -441,7 +441,7 @@
   <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -576,42 +576,47 @@
         <v>8</v>
       </c>
       <c r="D4" s="1">
-        <v>0.23599999999999999</v>
+        <f>0.236 - 0.00425</f>
+        <v>0.23174999999999998</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
       </c>
       <c r="F4">
         <f t="shared" ref="F4:F13" si="0">B4*D4</f>
-        <v>0.15340000000000001</v>
+        <v>0.15063750000000001</v>
       </c>
       <c r="G4">
-        <v>0.246</v>
+        <f>0.246-0.00425</f>
+        <v>0.24174999999999999</v>
       </c>
       <c r="H4">
         <f t="shared" ref="H4:H13" si="1">G4*B4</f>
-        <v>0.15990000000000001</v>
+        <v>0.15713750000000001</v>
       </c>
       <c r="I4">
-        <v>0.183</v>
+        <f>0.183-0.00425</f>
+        <v>0.17874999999999999</v>
       </c>
       <c r="J4">
         <f t="shared" ref="J4:J13" si="2">I4*B4</f>
-        <v>0.11895</v>
+        <v>0.1161875</v>
       </c>
       <c r="K4">
-        <v>0.255</v>
+        <f>0.255-0.00425</f>
+        <v>0.25075000000000003</v>
       </c>
       <c r="L4">
-        <f t="shared" ref="L4:L14" si="3">K4*B4</f>
-        <v>0.16575000000000001</v>
+        <f t="shared" ref="L4:L13" si="3">K4*B4</f>
+        <v>0.16298750000000004</v>
       </c>
       <c r="M4">
-        <v>0.25</v>
+        <f>0.25-0.00425</f>
+        <v>0.24575</v>
       </c>
       <c r="N4">
-        <f t="shared" ref="N4:N14" si="4">M4*B4</f>
-        <v>0.16250000000000001</v>
+        <f t="shared" ref="N4:N13" si="4">M4*B4</f>
+        <v>0.1597375</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
@@ -925,42 +930,47 @@
         <v>8</v>
       </c>
       <c r="D11" s="1">
-        <v>0.06</v>
+        <f>0.06 - 0.00425</f>
+        <v>5.5749999999999994E-2</v>
       </c>
       <c r="E11" t="s">
         <v>10</v>
       </c>
       <c r="F11">
         <f t="shared" si="0"/>
-        <v>3.9E-2</v>
+        <v>3.6237499999999999E-2</v>
       </c>
       <c r="G11">
-        <v>0.05</v>
+        <f>0.05-0.00425</f>
+        <v>4.5749999999999999E-2</v>
       </c>
       <c r="H11">
         <f t="shared" si="1"/>
-        <v>3.2500000000000001E-2</v>
+        <v>2.97375E-2</v>
       </c>
       <c r="I11">
-        <v>0.05</v>
+        <f>0.05-0.00425</f>
+        <v>4.5749999999999999E-2</v>
       </c>
       <c r="J11">
         <f t="shared" si="2"/>
-        <v>3.2500000000000001E-2</v>
+        <v>2.97375E-2</v>
       </c>
       <c r="K11">
-        <v>0.05</v>
+        <f>0.05-0.00425</f>
+        <v>4.5749999999999999E-2</v>
       </c>
       <c r="L11">
         <f t="shared" si="3"/>
-        <v>3.2500000000000001E-2</v>
+        <v>2.97375E-2</v>
       </c>
       <c r="M11">
-        <v>0.05</v>
+        <f>0.05-0.00425</f>
+        <v>4.5749999999999999E-2</v>
       </c>
       <c r="N11">
         <f t="shared" si="4"/>
-        <v>3.2500000000000001E-2</v>
+        <v>2.97375E-2</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
@@ -1072,23 +1082,23 @@
       </c>
       <c r="F14">
         <f>SUM(F3:F13)</f>
-        <v>1.2276372100000001</v>
+        <v>1.2221122100000001</v>
       </c>
       <c r="H14">
         <f>SUM(H3:H13)</f>
-        <v>1.1626864850000005</v>
+        <v>1.1571614850000005</v>
       </c>
       <c r="J14">
         <f>SUM(J3:J13)</f>
-        <v>1.1115281800000001</v>
+        <v>1.1060031800000001</v>
       </c>
       <c r="L14">
         <f>SUM(L3:L13)</f>
-        <v>1.1850644630000002</v>
+        <v>1.1795394630000002</v>
       </c>
       <c r="N14">
         <f>SUM(N3:N13)</f>
-        <v>1.1679323780000002</v>
+        <v>1.1624073780000002</v>
       </c>
     </row>
   </sheetData>
